--- a/data/Contact_Recreation/MakotukuatRaetihiMotorCamp_b4e46b53f5.xlsx
+++ b/data/Contact_Recreation/MakotukuatRaetihiMotorCamp_b4e46b53f5.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -531,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -609,7 +609,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -644,7 +644,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -683,7 +683,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -761,7 +761,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -800,7 +800,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -839,7 +839,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -878,7 +878,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -917,7 +917,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -956,7 +956,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -995,7 +995,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -2204,7 +2204,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2828,7 +2828,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2945,7 +2945,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2984,7 +2984,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -3140,7 +3140,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -3218,7 +3218,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -3257,7 +3257,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -3413,7 +3413,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3647,7 +3647,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3686,7 +3686,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3764,7 +3764,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3842,7 +3842,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -3920,7 +3920,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3959,7 +3959,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -3998,7 +3998,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -4037,7 +4037,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -4154,7 +4154,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -4232,7 +4232,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -4271,7 +4271,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -4310,7 +4310,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -4427,7 +4427,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -4583,7 +4583,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4739,7 +4739,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4778,7 +4778,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -4817,7 +4817,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -4895,7 +4895,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -4934,7 +4934,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -4973,7 +4973,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -5012,7 +5012,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -5051,7 +5051,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -5090,7 +5090,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -5129,7 +5129,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -5246,7 +5246,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -5285,7 +5285,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -5324,7 +5324,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -5363,7 +5363,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">

--- a/data/Contact_Recreation/MakotukuatRaetihiMotorCamp_b4e46b53f5.xlsx
+++ b/data/Contact_Recreation/MakotukuatRaetihiMotorCamp_b4e46b53f5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="134">
   <si>
     <t>site name</t>
   </si>
@@ -49,319 +49,358 @@
     <t>E. coli</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>1470</t>
-  </si>
-  <si>
-    <t>959</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>1080</t>
-  </si>
-  <si>
-    <t>933</t>
-  </si>
-  <si>
-    <t>602</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>520</t>
-  </si>
-  <si>
-    <t>336</t>
-  </si>
-  <si>
-    <t>464</t>
-  </si>
-  <si>
-    <t>479</t>
-  </si>
-  <si>
-    <t>253</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>19900</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>279</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>241</t>
-  </si>
-  <si>
-    <t>246</t>
-  </si>
-  <si>
-    <t>373</t>
-  </si>
-  <si>
-    <t>364</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>414</t>
-  </si>
-  <si>
-    <t>749</t>
-  </si>
-  <si>
-    <t>393</t>
-  </si>
-  <si>
-    <t>389</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>345</t>
-  </si>
-  <si>
-    <t>457</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>420</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>2490</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>359</t>
-  </si>
-  <si>
-    <t>4610</t>
-  </si>
-  <si>
-    <t>556</t>
-  </si>
-  <si>
-    <t>3260</t>
-  </si>
-  <si>
-    <t>8160</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>645</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>744</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>3870</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>565</t>
-  </si>
-  <si>
-    <t>&gt;24201</t>
-  </si>
-  <si>
-    <t>408</t>
-  </si>
-  <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>266</t>
-  </si>
-  <si>
-    <t>1172</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>292</t>
-  </si>
-  <si>
-    <t>480</t>
-  </si>
-  <si>
-    <t>563</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>384</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>388</t>
-  </si>
-  <si>
-    <t>265</t>
-  </si>
-  <si>
-    <t>813</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>638</t>
-  </si>
-  <si>
-    <t>2400</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>379</t>
-  </si>
-  <si>
-    <t>842</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>613</t>
-  </si>
-  <si>
-    <t>521</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>581</t>
-  </si>
-  <si>
-    <t>1450</t>
-  </si>
-  <si>
-    <t>305</t>
-  </si>
-  <si>
-    <t>1112</t>
-  </si>
-  <si>
-    <t>2098</t>
-  </si>
-  <si>
-    <t>624</t>
-  </si>
-  <si>
-    <t>1664</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>960</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>576</t>
-  </si>
-  <si>
-    <t>2143</t>
-  </si>
-  <si>
-    <t>487</t>
-  </si>
-  <si>
-    <t>13000</t>
-  </si>
-  <si>
-    <t>906</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>816</t>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>122.0</t>
+  </si>
+  <si>
+    <t>183.0</t>
+  </si>
+  <si>
+    <t>187.0</t>
+  </si>
+  <si>
+    <t>1470.0</t>
+  </si>
+  <si>
+    <t>959.0</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>109.0</t>
+  </si>
+  <si>
+    <t>1080.0</t>
+  </si>
+  <si>
+    <t>933.0</t>
+  </si>
+  <si>
+    <t>602.0</t>
+  </si>
+  <si>
+    <t>201.0</t>
+  </si>
+  <si>
+    <t>520.0</t>
+  </si>
+  <si>
+    <t>336.0</t>
+  </si>
+  <si>
+    <t>464.0</t>
+  </si>
+  <si>
+    <t>479.0</t>
+  </si>
+  <si>
+    <t>253.0</t>
+  </si>
+  <si>
+    <t>168.0</t>
+  </si>
+  <si>
+    <t>19900.0</t>
+  </si>
+  <si>
+    <t>216.0</t>
+  </si>
+  <si>
+    <t>98.0</t>
+  </si>
+  <si>
+    <t>134.0</t>
+  </si>
+  <si>
+    <t>279.0</t>
+  </si>
+  <si>
+    <t>146.0</t>
+  </si>
+  <si>
+    <t>2014.0</t>
+  </si>
+  <si>
+    <t>241.0</t>
+  </si>
+  <si>
+    <t>246.0</t>
+  </si>
+  <si>
+    <t>373.0</t>
+  </si>
+  <si>
+    <t>364.0</t>
+  </si>
+  <si>
+    <t>74.0</t>
+  </si>
+  <si>
+    <t>414.0</t>
+  </si>
+  <si>
+    <t>749.0</t>
+  </si>
+  <si>
+    <t>393.0</t>
+  </si>
+  <si>
+    <t>389.0</t>
+  </si>
+  <si>
+    <t>121.0</t>
+  </si>
+  <si>
+    <t>345.0</t>
+  </si>
+  <si>
+    <t>457.0</t>
+  </si>
+  <si>
+    <t>238.0</t>
+  </si>
+  <si>
+    <t>420.0</t>
+  </si>
+  <si>
+    <t>156.0</t>
+  </si>
+  <si>
+    <t>2490.0</t>
+  </si>
+  <si>
+    <t>256.0</t>
+  </si>
+  <si>
+    <t>359.0</t>
+  </si>
+  <si>
+    <t>4610.0</t>
+  </si>
+  <si>
+    <t>556.0</t>
+  </si>
+  <si>
+    <t>3260.0</t>
+  </si>
+  <si>
+    <t>8160.0</t>
+  </si>
+  <si>
+    <t>95.0</t>
+  </si>
+  <si>
+    <t>259.0</t>
+  </si>
+  <si>
+    <t>645.0</t>
+  </si>
+  <si>
+    <t>97.0</t>
+  </si>
+  <si>
+    <t>744.0</t>
+  </si>
+  <si>
+    <t>189.0</t>
+  </si>
+  <si>
+    <t>148.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>3870.0</t>
+  </si>
+  <si>
+    <t>160.0</t>
+  </si>
+  <si>
+    <t>144.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>565.0</t>
+  </si>
+  <si>
+    <t>&gt;24201.0</t>
+  </si>
+  <si>
+    <t>408.0</t>
+  </si>
+  <si>
+    <t>272.0</t>
+  </si>
+  <si>
+    <t>266.0</t>
+  </si>
+  <si>
+    <t>1172.0</t>
+  </si>
+  <si>
+    <t>213.0</t>
+  </si>
+  <si>
+    <t>185.0</t>
+  </si>
+  <si>
+    <t>211.0</t>
+  </si>
+  <si>
+    <t>292.0</t>
+  </si>
+  <si>
+    <t>480.0</t>
+  </si>
+  <si>
+    <t>563.0</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>384.0</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>388.0</t>
+  </si>
+  <si>
+    <t>265.0</t>
+  </si>
+  <si>
+    <t>813.0</t>
+  </si>
+  <si>
+    <t>173.0</t>
+  </si>
+  <si>
+    <t>171.0</t>
+  </si>
+  <si>
+    <t>638.0</t>
+  </si>
+  <si>
+    <t>2400.0</t>
+  </si>
+  <si>
+    <t>158.0</t>
+  </si>
+  <si>
+    <t>379.0</t>
+  </si>
+  <si>
+    <t>842.0</t>
+  </si>
+  <si>
+    <t>85.0</t>
+  </si>
+  <si>
+    <t>613.0</t>
+  </si>
+  <si>
+    <t>521.0</t>
+  </si>
+  <si>
+    <t>199.0</t>
+  </si>
+  <si>
+    <t>581.0</t>
+  </si>
+  <si>
+    <t>1450.0</t>
+  </si>
+  <si>
+    <t>305.0</t>
+  </si>
+  <si>
+    <t>1112.0</t>
+  </si>
+  <si>
+    <t>2098.0</t>
+  </si>
+  <si>
+    <t>624.0</t>
+  </si>
+  <si>
+    <t>1664.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>960.0</t>
+  </si>
+  <si>
+    <t>228.0</t>
+  </si>
+  <si>
+    <t>576.0</t>
+  </si>
+  <si>
+    <t>2143.0</t>
+  </si>
+  <si>
+    <t>487.0</t>
+  </si>
+  <si>
+    <t>13000.0</t>
+  </si>
+  <si>
+    <t>906.0</t>
+  </si>
+  <si>
+    <t>107.0</t>
+  </si>
+  <si>
+    <t>816.0</t>
+  </si>
+  <si>
+    <t>2723.0</t>
+  </si>
+  <si>
+    <t>488.4</t>
+  </si>
+  <si>
+    <t>231.0</t>
+  </si>
+  <si>
+    <t>243.0</t>
+  </si>
+  <si>
+    <t>2247.0</t>
+  </si>
+  <si>
+    <t>1842.0</t>
+  </si>
+  <si>
+    <t>313.0</t>
+  </si>
+  <si>
+    <t>455.0</t>
+  </si>
+  <si>
+    <t>262.0</t>
+  </si>
+  <si>
+    <t>435.0</t>
+  </si>
+  <si>
+    <t>754.0</t>
+  </si>
+  <si>
+    <t>2382.0</t>
+  </si>
+  <si>
+    <t>169.0</t>
   </si>
   <si>
     <t>Science - Contact Recreation</t>
@@ -371,6 +410,9 @@
   </si>
   <si>
     <t>APHA 23rd Ed. 9223 B</t>
+  </si>
+  <si>
+    <t>SMEWW 9223B</t>
   </si>
   <si>
     <t>MPN/100mL</t>
@@ -735,7 +777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I151"/>
+  <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -784,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G2" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H2">
         <v>200</v>
@@ -810,13 +852,13 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G3" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H3">
         <v>600</v>
@@ -836,13 +878,13 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F4" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G4" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H4">
         <v>600</v>
@@ -862,10 +904,10 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G5" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H5">
         <v>600</v>
@@ -885,13 +927,13 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F6" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G6" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H6">
         <v>600</v>
@@ -911,13 +953,13 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G7" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H7">
         <v>200</v>
@@ -937,13 +979,13 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F8" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G8" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H8">
         <v>200</v>
@@ -963,13 +1005,13 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F9" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G9" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H9">
         <v>600</v>
@@ -989,13 +1031,13 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G10" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H10">
         <v>600</v>
@@ -1015,13 +1057,13 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H11">
         <v>200</v>
@@ -1041,13 +1083,13 @@
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H12">
         <v>200</v>
@@ -1067,13 +1109,13 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H13">
         <v>200</v>
@@ -1093,13 +1135,13 @@
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F14" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H14">
         <v>600</v>
@@ -1119,13 +1161,13 @@
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F15" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G15" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H15">
         <v>200</v>
@@ -1145,13 +1187,13 @@
         <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F16" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G16" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H16">
         <v>200</v>
@@ -1171,13 +1213,13 @@
         <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F17" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G17" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H17">
         <v>600</v>
@@ -1197,13 +1239,13 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F18" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G18" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H18">
         <v>200</v>
@@ -1223,13 +1265,13 @@
         <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F19" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G19" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H19">
         <v>200</v>
@@ -1249,13 +1291,13 @@
         <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F20" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G20" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H20">
         <v>600</v>
@@ -1275,13 +1317,13 @@
         <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G21" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H21">
         <v>600</v>
@@ -1301,13 +1343,13 @@
         <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F22" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G22" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H22">
         <v>600</v>
@@ -1327,13 +1369,13 @@
         <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F23" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G23" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H23">
         <v>600</v>
@@ -1353,13 +1395,13 @@
         <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F24" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G24" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H24">
         <v>600</v>
@@ -1379,13 +1421,13 @@
         <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F25" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G25" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H25">
         <v>600</v>
@@ -1405,13 +1447,13 @@
         <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F26" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G26" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H26">
         <v>600</v>
@@ -1431,13 +1473,13 @@
         <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F27" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G27" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H27">
         <v>200</v>
@@ -1457,13 +1499,13 @@
         <v>23</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F28" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G28" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H28">
         <v>600</v>
@@ -1483,13 +1525,13 @@
         <v>35</v>
       </c>
       <c r="E29" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F29" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G29" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H29">
         <v>600</v>
@@ -1509,13 +1551,13 @@
         <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F30" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G30" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H30">
         <v>200</v>
@@ -1535,13 +1577,13 @@
         <v>36</v>
       </c>
       <c r="E31" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F31" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G31" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H31">
         <v>200</v>
@@ -1561,13 +1603,13 @@
         <v>37</v>
       </c>
       <c r="E32" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F32" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G32" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H32">
         <v>600</v>
@@ -1587,13 +1629,13 @@
         <v>22</v>
       </c>
       <c r="E33" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F33" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="G33" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H33">
         <v>200</v>
@@ -1613,13 +1655,13 @@
         <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F34" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G34" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H34">
         <v>600</v>
@@ -1639,13 +1681,13 @@
         <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F35" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G35" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H35">
         <v>600</v>
@@ -1665,13 +1707,13 @@
         <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F36" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G36" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H36">
         <v>600</v>
@@ -1691,13 +1733,13 @@
         <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F37" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G37" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H37">
         <v>600</v>
@@ -1717,13 +1759,13 @@
         <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F38" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G38" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H38">
         <v>600</v>
@@ -1743,13 +1785,13 @@
         <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F39" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G39" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H39">
         <v>600</v>
@@ -1769,13 +1811,13 @@
         <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F40" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G40" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H40">
         <v>600</v>
@@ -1795,13 +1837,13 @@
         <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F41" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G41" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H41">
         <v>600</v>
@@ -1821,13 +1863,13 @@
         <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F42" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G42" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H42">
         <v>600</v>
@@ -1847,13 +1889,13 @@
         <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F43" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G43" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H43">
         <v>600</v>
@@ -1873,13 +1915,13 @@
         <v>24</v>
       </c>
       <c r="E44" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F44" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G44" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H44">
         <v>600</v>
@@ -1899,13 +1941,13 @@
         <v>47</v>
       </c>
       <c r="E45" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F45" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G45" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H45">
         <v>600</v>
@@ -1925,13 +1967,13 @@
         <v>48</v>
       </c>
       <c r="E46" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F46" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G46" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H46">
         <v>600</v>
@@ -1951,13 +1993,13 @@
         <v>49</v>
       </c>
       <c r="E47" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F47" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G47" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H47">
         <v>600</v>
@@ -1977,13 +2019,13 @@
         <v>30</v>
       </c>
       <c r="E48" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F48" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G48" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H48">
         <v>600</v>
@@ -2003,13 +2045,13 @@
         <v>50</v>
       </c>
       <c r="E49" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F49" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G49" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H49">
         <v>600</v>
@@ -2029,13 +2071,13 @@
         <v>30</v>
       </c>
       <c r="E50" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F50" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G50" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H50">
         <v>600</v>
@@ -2055,13 +2097,13 @@
         <v>51</v>
       </c>
       <c r="E51" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F51" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G51" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H51">
         <v>600</v>
@@ -2081,13 +2123,13 @@
         <v>52</v>
       </c>
       <c r="E52" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F52" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G52" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H52">
         <v>600</v>
@@ -2107,13 +2149,13 @@
         <v>14</v>
       </c>
       <c r="E53" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F53" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G53" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H53">
         <v>600</v>
@@ -2133,13 +2175,13 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F54" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G54" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H54">
         <v>600</v>
@@ -2159,13 +2201,13 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F55" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G55" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H55">
         <v>600</v>
@@ -2185,13 +2227,13 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F56" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G56" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H56">
         <v>600</v>
@@ -2211,13 +2253,13 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F57" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G57" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H57">
         <v>600</v>
@@ -2237,13 +2279,13 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F58" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G58" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H58">
         <v>600</v>
@@ -2263,13 +2305,13 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G59" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H59">
         <v>600</v>
@@ -2289,13 +2331,13 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G60" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H60">
         <v>600</v>
@@ -2315,13 +2357,13 @@
         <v>43</v>
       </c>
       <c r="E61" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G61" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H61">
         <v>600</v>
@@ -2341,13 +2383,13 @@
         <v>60</v>
       </c>
       <c r="E62" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F62" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G62" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H62">
         <v>600</v>
@@ -2367,13 +2409,13 @@
         <v>61</v>
       </c>
       <c r="E63" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F63" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G63" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H63">
         <v>600</v>
@@ -2393,13 +2435,13 @@
         <v>62</v>
       </c>
       <c r="E64" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F64" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G64" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H64">
         <v>600</v>
@@ -2419,13 +2461,13 @@
         <v>63</v>
       </c>
       <c r="E65" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F65" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G65" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H65">
         <v>600</v>
@@ -2445,13 +2487,13 @@
         <v>50</v>
       </c>
       <c r="E66" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G66" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H66">
         <v>600</v>
@@ -2471,13 +2513,13 @@
         <v>18</v>
       </c>
       <c r="E67" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G67" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H67">
         <v>600</v>
@@ -2497,13 +2539,13 @@
         <v>64</v>
       </c>
       <c r="E68" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G68" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H68">
         <v>600</v>
@@ -2523,13 +2565,13 @@
         <v>65</v>
       </c>
       <c r="E69" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F69" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G69" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H69">
         <v>600</v>
@@ -2549,13 +2591,13 @@
         <v>66</v>
       </c>
       <c r="E70" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F70" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G70" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H70">
         <v>600</v>
@@ -2575,13 +2617,13 @@
         <v>67</v>
       </c>
       <c r="E71" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F71" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G71" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H71">
         <v>600</v>
@@ -2601,13 +2643,13 @@
         <v>68</v>
       </c>
       <c r="E72" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F72" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G72" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H72">
         <v>600</v>
@@ -2627,13 +2669,13 @@
         <v>61</v>
       </c>
       <c r="E73" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F73" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G73" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H73">
         <v>600</v>
@@ -2653,13 +2695,13 @@
         <v>22</v>
       </c>
       <c r="E74" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F74" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G74" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H74">
         <v>600</v>
@@ -2679,13 +2721,13 @@
         <v>40</v>
       </c>
       <c r="E75" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F75" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G75" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H75">
         <v>600</v>
@@ -2705,13 +2747,13 @@
         <v>69</v>
       </c>
       <c r="E76" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F76" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G76" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H76">
         <v>600</v>
@@ -2731,13 +2773,13 @@
         <v>34</v>
       </c>
       <c r="E77" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F77" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G77" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H77">
         <v>600</v>
@@ -2757,13 +2799,13 @@
         <v>70</v>
       </c>
       <c r="E78" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F78" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G78" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H78">
         <v>600</v>
@@ -2783,13 +2825,13 @@
         <v>48</v>
       </c>
       <c r="E79" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F79" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G79" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H79">
         <v>600</v>
@@ -2809,13 +2851,13 @@
         <v>71</v>
       </c>
       <c r="E80" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F80" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G80" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H80">
         <v>600</v>
@@ -2835,13 +2877,13 @@
         <v>72</v>
       </c>
       <c r="E81" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F81" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G81" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H81">
         <v>600</v>
@@ -2861,13 +2903,13 @@
         <v>73</v>
       </c>
       <c r="E82" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F82" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G82" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H82">
         <v>600</v>
@@ -2887,13 +2929,13 @@
         <v>74</v>
       </c>
       <c r="E83" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F83" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G83" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H83">
         <v>600</v>
@@ -2913,13 +2955,13 @@
         <v>75</v>
       </c>
       <c r="E84" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F84" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G84" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H84">
         <v>600</v>
@@ -2939,13 +2981,13 @@
         <v>76</v>
       </c>
       <c r="E85" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F85" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G85" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H85">
         <v>600</v>
@@ -2965,13 +3007,13 @@
         <v>77</v>
       </c>
       <c r="E86" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F86" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G86" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H86">
         <v>600</v>
@@ -2991,13 +3033,13 @@
         <v>78</v>
       </c>
       <c r="E87" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F87" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G87" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H87">
         <v>600</v>
@@ -3017,13 +3059,13 @@
         <v>67</v>
       </c>
       <c r="E88" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F88" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G88" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H88">
         <v>600</v>
@@ -3043,13 +3085,13 @@
         <v>79</v>
       </c>
       <c r="E89" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F89" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G89" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H89">
         <v>600</v>
@@ -3069,13 +3111,13 @@
         <v>80</v>
       </c>
       <c r="E90" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F90" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G90" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H90">
         <v>600</v>
@@ -3095,13 +3137,13 @@
         <v>81</v>
       </c>
       <c r="E91" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F91" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G91" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H91">
         <v>600</v>
@@ -3121,13 +3163,13 @@
         <v>73</v>
       </c>
       <c r="E92" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F92" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G92" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H92">
         <v>600</v>
@@ -3147,13 +3189,13 @@
         <v>22</v>
       </c>
       <c r="E93" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F93" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G93" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H93">
         <v>600</v>
@@ -3173,13 +3215,13 @@
         <v>77</v>
       </c>
       <c r="E94" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F94" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G94" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H94">
         <v>600</v>
@@ -3199,13 +3241,13 @@
         <v>82</v>
       </c>
       <c r="E95" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F95" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G95" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H95">
         <v>600</v>
@@ -3225,13 +3267,13 @@
         <v>54</v>
       </c>
       <c r="E96" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F96" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G96" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H96">
         <v>600</v>
@@ -3251,13 +3293,13 @@
         <v>81</v>
       </c>
       <c r="E97" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F97" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G97" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H97">
         <v>600</v>
@@ -3277,13 +3319,13 @@
         <v>83</v>
       </c>
       <c r="E98" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F98" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G98" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H98">
         <v>600</v>
@@ -3303,13 +3345,13 @@
         <v>53</v>
       </c>
       <c r="E99" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F99" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G99" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H99">
         <v>600</v>
@@ -3329,13 +3371,13 @@
         <v>84</v>
       </c>
       <c r="E100" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F100" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G100" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H100">
         <v>600</v>
@@ -3355,13 +3397,13 @@
         <v>85</v>
       </c>
       <c r="E101" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F101" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G101" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H101">
         <v>600</v>
@@ -3381,13 +3423,13 @@
         <v>21</v>
       </c>
       <c r="E102" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F102" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G102" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H102">
         <v>600</v>
@@ -3407,13 +3449,13 @@
         <v>86</v>
       </c>
       <c r="E103" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F103" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G103" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H103">
         <v>600</v>
@@ -3433,13 +3475,13 @@
         <v>42</v>
       </c>
       <c r="E104" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F104" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G104" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H104">
         <v>600</v>
@@ -3459,13 +3501,13 @@
         <v>87</v>
       </c>
       <c r="E105" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F105" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G105" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H105">
         <v>600</v>
@@ -3485,13 +3527,13 @@
         <v>88</v>
       </c>
       <c r="E106" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F106" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G106" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H106">
         <v>600</v>
@@ -3511,13 +3553,13 @@
         <v>89</v>
       </c>
       <c r="E107" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F107" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G107" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H107">
         <v>600</v>
@@ -3537,13 +3579,13 @@
         <v>90</v>
       </c>
       <c r="E108" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F108" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G108" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H108">
         <v>600</v>
@@ -3563,13 +3605,13 @@
         <v>91</v>
       </c>
       <c r="E109" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F109" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G109" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H109">
         <v>600</v>
@@ -3589,13 +3631,13 @@
         <v>92</v>
       </c>
       <c r="E110" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F110" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G110" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H110">
         <v>600</v>
@@ -3615,13 +3657,13 @@
         <v>93</v>
       </c>
       <c r="E111" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F111" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G111" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H111">
         <v>600</v>
@@ -3641,13 +3683,13 @@
         <v>94</v>
       </c>
       <c r="E112" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F112" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G112" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H112">
         <v>600</v>
@@ -3667,13 +3709,13 @@
         <v>45</v>
       </c>
       <c r="E113" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F113" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G113" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H113">
         <v>600</v>
@@ -3693,13 +3735,13 @@
         <v>95</v>
       </c>
       <c r="E114" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F114" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G114" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H114">
         <v>600</v>
@@ -3719,13 +3761,13 @@
         <v>96</v>
       </c>
       <c r="E115" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F115" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G115" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H115">
         <v>600</v>
@@ -3745,13 +3787,13 @@
         <v>97</v>
       </c>
       <c r="E116" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F116" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G116" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H116">
         <v>600</v>
@@ -3771,13 +3813,13 @@
         <v>52</v>
       </c>
       <c r="E117" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F117" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G117" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H117">
         <v>600</v>
@@ -3797,13 +3839,13 @@
         <v>98</v>
       </c>
       <c r="E118" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F118" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G118" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H118">
         <v>600</v>
@@ -3823,13 +3865,13 @@
         <v>99</v>
       </c>
       <c r="E119" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F119" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G119" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H119">
         <v>600</v>
@@ -3849,13 +3891,13 @@
         <v>46</v>
       </c>
       <c r="E120" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F120" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G120" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H120">
         <v>600</v>
@@ -3875,13 +3917,13 @@
         <v>100</v>
       </c>
       <c r="E121" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F121" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G121" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H121">
         <v>600</v>
@@ -3901,13 +3943,13 @@
         <v>101</v>
       </c>
       <c r="E122" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F122" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G122" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H122">
         <v>600</v>
@@ -3927,13 +3969,13 @@
         <v>16</v>
       </c>
       <c r="E123" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F123" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G123" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H123">
         <v>600</v>
@@ -3953,13 +3995,13 @@
         <v>102</v>
       </c>
       <c r="E124" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F124" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G124" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H124">
         <v>600</v>
@@ -3979,13 +4021,13 @@
         <v>103</v>
       </c>
       <c r="E125" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F125" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G125" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H125">
         <v>600</v>
@@ -4005,13 +4047,13 @@
         <v>82</v>
       </c>
       <c r="E126" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F126" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G126" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H126">
         <v>600</v>
@@ -4031,13 +4073,13 @@
         <v>41</v>
       </c>
       <c r="E127" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F127" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G127" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H127">
         <v>600</v>
@@ -4057,13 +4099,13 @@
         <v>104</v>
       </c>
       <c r="E128" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F128" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G128" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H128">
         <v>600</v>
@@ -4083,13 +4125,13 @@
         <v>32</v>
       </c>
       <c r="E129" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F129" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G129" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H129">
         <v>600</v>
@@ -4109,13 +4151,13 @@
         <v>105</v>
       </c>
       <c r="E130" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F130" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G130" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H130">
         <v>600</v>
@@ -4135,13 +4177,13 @@
         <v>106</v>
       </c>
       <c r="E131" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F131" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G131" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H131">
         <v>600</v>
@@ -4161,13 +4203,13 @@
         <v>107</v>
       </c>
       <c r="E132" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F132" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G132" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H132">
         <v>600</v>
@@ -4187,13 +4229,13 @@
         <v>108</v>
       </c>
       <c r="E133" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F133" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G133" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H133">
         <v>600</v>
@@ -4213,13 +4255,13 @@
         <v>77</v>
       </c>
       <c r="E134" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F134" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G134" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H134">
         <v>600</v>
@@ -4239,13 +4281,13 @@
         <v>109</v>
       </c>
       <c r="E135" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F135" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G135" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H135">
         <v>600</v>
@@ -4265,13 +4307,13 @@
         <v>47</v>
       </c>
       <c r="E136" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F136" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G136" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H136">
         <v>600</v>
@@ -4291,13 +4333,13 @@
         <v>110</v>
       </c>
       <c r="E137" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F137" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G137" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H137">
         <v>600</v>
@@ -4317,13 +4359,13 @@
         <v>111</v>
       </c>
       <c r="E138" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F138" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G138" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H138">
         <v>600</v>
@@ -4343,13 +4385,13 @@
         <v>112</v>
       </c>
       <c r="E139" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F139" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G139" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H139">
         <v>600</v>
@@ -4369,13 +4411,13 @@
         <v>87</v>
       </c>
       <c r="E140" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F140" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G140" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H140">
         <v>600</v>
@@ -4395,13 +4437,13 @@
         <v>88</v>
       </c>
       <c r="E141" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F141" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G141" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H141">
         <v>600</v>
@@ -4421,13 +4463,13 @@
         <v>113</v>
       </c>
       <c r="E142" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F142" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G142" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H142">
         <v>600</v>
@@ -4447,13 +4489,13 @@
         <v>84</v>
       </c>
       <c r="E143" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F143" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G143" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H143">
         <v>600</v>
@@ -4473,13 +4515,13 @@
         <v>54</v>
       </c>
       <c r="E144" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F144" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G144" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H144">
         <v>600</v>
@@ -4499,13 +4541,13 @@
         <v>114</v>
       </c>
       <c r="E145" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F145" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G145" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H145">
         <v>600</v>
@@ -4525,13 +4567,13 @@
         <v>46</v>
       </c>
       <c r="E146" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F146" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G146" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H146">
         <v>600</v>
@@ -4551,13 +4593,13 @@
         <v>115</v>
       </c>
       <c r="E147" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F147" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G147" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H147">
         <v>600</v>
@@ -4577,13 +4619,13 @@
         <v>98</v>
       </c>
       <c r="E148" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F148" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G148" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H148">
         <v>600</v>
@@ -4603,13 +4645,13 @@
         <v>18</v>
       </c>
       <c r="E149" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F149" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G149" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H149">
         <v>600</v>
@@ -4629,13 +4671,13 @@
         <v>79</v>
       </c>
       <c r="E150" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F150" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G150" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H150">
         <v>600</v>
@@ -4655,15 +4697,639 @@
         <v>47</v>
       </c>
       <c r="E151" t="s">
+        <v>129</v>
+      </c>
+      <c r="F151" t="s">
+        <v>131</v>
+      </c>
+      <c r="G151" t="s">
+        <v>133</v>
+      </c>
+      <c r="H151">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" t="s">
+        <v>9</v>
+      </c>
+      <c r="B152" t="s">
+        <v>10</v>
+      </c>
+      <c r="C152" s="2">
+        <v>45600.38194444445</v>
+      </c>
+      <c r="D152" t="s">
         <v>116</v>
       </c>
-      <c r="F151" t="s">
+      <c r="E152" t="s">
+        <v>129</v>
+      </c>
+      <c r="F152" t="s">
+        <v>132</v>
+      </c>
+      <c r="G152" t="s">
+        <v>133</v>
+      </c>
+      <c r="H152">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" t="s">
+        <v>9</v>
+      </c>
+      <c r="B153" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153" s="2">
+        <v>45607.42013888889</v>
+      </c>
+      <c r="D153" t="s">
+        <v>117</v>
+      </c>
+      <c r="E153" t="s">
+        <v>129</v>
+      </c>
+      <c r="F153" t="s">
+        <v>132</v>
+      </c>
+      <c r="G153" t="s">
+        <v>133</v>
+      </c>
+      <c r="H153">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" t="s">
+        <v>9</v>
+      </c>
+      <c r="B154" t="s">
+        <v>10</v>
+      </c>
+      <c r="C154" s="2">
+        <v>45614.42916666667</v>
+      </c>
+      <c r="D154" t="s">
+        <v>30</v>
+      </c>
+      <c r="E154" t="s">
+        <v>129</v>
+      </c>
+      <c r="F154" t="s">
+        <v>132</v>
+      </c>
+      <c r="G154" t="s">
+        <v>133</v>
+      </c>
+      <c r="H154">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" t="s">
+        <v>9</v>
+      </c>
+      <c r="B155" t="s">
+        <v>10</v>
+      </c>
+      <c r="C155" s="2">
+        <v>45621.45902777778</v>
+      </c>
+      <c r="D155" t="s">
         <v>118</v>
       </c>
-      <c r="G151" t="s">
+      <c r="E155" t="s">
+        <v>129</v>
+      </c>
+      <c r="F155" t="s">
+        <v>132</v>
+      </c>
+      <c r="G155" t="s">
+        <v>133</v>
+      </c>
+      <c r="H155">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" t="s">
+        <v>9</v>
+      </c>
+      <c r="B156" t="s">
+        <v>10</v>
+      </c>
+      <c r="C156" s="2">
+        <v>45628.46944444445</v>
+      </c>
+      <c r="D156" t="s">
         <v>119</v>
       </c>
-      <c r="H151">
+      <c r="E156" t="s">
+        <v>129</v>
+      </c>
+      <c r="F156" t="s">
+        <v>132</v>
+      </c>
+      <c r="G156" t="s">
+        <v>133</v>
+      </c>
+      <c r="H156">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" t="s">
+        <v>9</v>
+      </c>
+      <c r="B157" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157" s="2">
+        <v>45636.45486111111</v>
+      </c>
+      <c r="D157" t="s">
+        <v>120</v>
+      </c>
+      <c r="E157" t="s">
+        <v>129</v>
+      </c>
+      <c r="F157" t="s">
+        <v>132</v>
+      </c>
+      <c r="G157" t="s">
+        <v>133</v>
+      </c>
+      <c r="H157">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" t="s">
+        <v>9</v>
+      </c>
+      <c r="B158" t="s">
+        <v>10</v>
+      </c>
+      <c r="C158" s="2">
+        <v>45642.45555555556</v>
+      </c>
+      <c r="D158" t="s">
+        <v>76</v>
+      </c>
+      <c r="E158" t="s">
+        <v>129</v>
+      </c>
+      <c r="F158" t="s">
+        <v>132</v>
+      </c>
+      <c r="G158" t="s">
+        <v>133</v>
+      </c>
+      <c r="H158">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" t="s">
+        <v>9</v>
+      </c>
+      <c r="B159" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" s="2">
+        <v>45649.38541666666</v>
+      </c>
+      <c r="D159" t="s">
+        <v>121</v>
+      </c>
+      <c r="E159" t="s">
+        <v>129</v>
+      </c>
+      <c r="F159" t="s">
+        <v>132</v>
+      </c>
+      <c r="G159" t="s">
+        <v>133</v>
+      </c>
+      <c r="H159">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" t="s">
+        <v>9</v>
+      </c>
+      <c r="B160" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" s="2">
+        <v>45656.36527777778</v>
+      </c>
+      <c r="D160" t="s">
+        <v>122</v>
+      </c>
+      <c r="E160" t="s">
+        <v>129</v>
+      </c>
+      <c r="F160" t="s">
+        <v>132</v>
+      </c>
+      <c r="G160" t="s">
+        <v>133</v>
+      </c>
+      <c r="H160">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" t="s">
+        <v>9</v>
+      </c>
+      <c r="B161" t="s">
+        <v>10</v>
+      </c>
+      <c r="C161" s="2">
+        <v>45663.42013888889</v>
+      </c>
+      <c r="D161" t="s">
+        <v>123</v>
+      </c>
+      <c r="E161" t="s">
+        <v>129</v>
+      </c>
+      <c r="F161" t="s">
+        <v>132</v>
+      </c>
+      <c r="G161" t="s">
+        <v>133</v>
+      </c>
+      <c r="H161">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" t="s">
+        <v>9</v>
+      </c>
+      <c r="B162" t="s">
+        <v>10</v>
+      </c>
+      <c r="C162" s="2">
+        <v>45670.50833333333</v>
+      </c>
+      <c r="D162" t="s">
+        <v>40</v>
+      </c>
+      <c r="E162" t="s">
+        <v>129</v>
+      </c>
+      <c r="F162" t="s">
+        <v>132</v>
+      </c>
+      <c r="G162" t="s">
+        <v>133</v>
+      </c>
+      <c r="H162">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" t="s">
+        <v>9</v>
+      </c>
+      <c r="B163" t="s">
+        <v>10</v>
+      </c>
+      <c r="C163" s="2">
+        <v>45677.4625</v>
+      </c>
+      <c r="D163" t="s">
+        <v>88</v>
+      </c>
+      <c r="E163" t="s">
+        <v>129</v>
+      </c>
+      <c r="F163" t="s">
+        <v>132</v>
+      </c>
+      <c r="G163" t="s">
+        <v>133</v>
+      </c>
+      <c r="H163">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" t="s">
+        <v>9</v>
+      </c>
+      <c r="B164" t="s">
+        <v>10</v>
+      </c>
+      <c r="C164" s="2">
+        <v>45685.45416666667</v>
+      </c>
+      <c r="D164" t="s">
+        <v>124</v>
+      </c>
+      <c r="E164" t="s">
+        <v>129</v>
+      </c>
+      <c r="F164" t="s">
+        <v>132</v>
+      </c>
+      <c r="G164" t="s">
+        <v>133</v>
+      </c>
+      <c r="H164">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" t="s">
+        <v>9</v>
+      </c>
+      <c r="B165" t="s">
+        <v>10</v>
+      </c>
+      <c r="C165" s="2">
+        <v>45699.44236111111</v>
+      </c>
+      <c r="D165" t="s">
+        <v>125</v>
+      </c>
+      <c r="E165" t="s">
+        <v>129</v>
+      </c>
+      <c r="F165" t="s">
+        <v>132</v>
+      </c>
+      <c r="G165" t="s">
+        <v>133</v>
+      </c>
+      <c r="H165">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" t="s">
+        <v>9</v>
+      </c>
+      <c r="B166" t="s">
+        <v>10</v>
+      </c>
+      <c r="C166" s="2">
+        <v>45705.44791666666</v>
+      </c>
+      <c r="D166" t="s">
+        <v>32</v>
+      </c>
+      <c r="E166" t="s">
+        <v>129</v>
+      </c>
+      <c r="F166" t="s">
+        <v>132</v>
+      </c>
+      <c r="G166" t="s">
+        <v>133</v>
+      </c>
+      <c r="H166">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" t="s">
+        <v>9</v>
+      </c>
+      <c r="B167" t="s">
+        <v>10</v>
+      </c>
+      <c r="C167" s="2">
+        <v>45712.48472222222</v>
+      </c>
+      <c r="D167" t="s">
+        <v>18</v>
+      </c>
+      <c r="E167" t="s">
+        <v>129</v>
+      </c>
+      <c r="F167" t="s">
+        <v>132</v>
+      </c>
+      <c r="G167" t="s">
+        <v>133</v>
+      </c>
+      <c r="H167">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" t="s">
+        <v>9</v>
+      </c>
+      <c r="B168" t="s">
+        <v>10</v>
+      </c>
+      <c r="C168" s="2">
+        <v>45719.47013888889</v>
+      </c>
+      <c r="D168" t="s">
+        <v>31</v>
+      </c>
+      <c r="E168" t="s">
+        <v>129</v>
+      </c>
+      <c r="F168" t="s">
+        <v>132</v>
+      </c>
+      <c r="G168" t="s">
+        <v>133</v>
+      </c>
+      <c r="H168">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" t="s">
+        <v>9</v>
+      </c>
+      <c r="B169" t="s">
+        <v>10</v>
+      </c>
+      <c r="C169" s="2">
+        <v>45726.46805555555</v>
+      </c>
+      <c r="D169" t="s">
+        <v>95</v>
+      </c>
+      <c r="E169" t="s">
+        <v>129</v>
+      </c>
+      <c r="F169" t="s">
+        <v>132</v>
+      </c>
+      <c r="G169" t="s">
+        <v>133</v>
+      </c>
+      <c r="H169">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" t="s">
+        <v>9</v>
+      </c>
+      <c r="B170" t="s">
+        <v>10</v>
+      </c>
+      <c r="C170" s="2">
+        <v>45733.46319444444</v>
+      </c>
+      <c r="D170" t="s">
+        <v>59</v>
+      </c>
+      <c r="E170" t="s">
+        <v>129</v>
+      </c>
+      <c r="F170" t="s">
+        <v>132</v>
+      </c>
+      <c r="G170" t="s">
+        <v>133</v>
+      </c>
+      <c r="H170">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" t="s">
+        <v>9</v>
+      </c>
+      <c r="B171" t="s">
+        <v>10</v>
+      </c>
+      <c r="C171" s="2">
+        <v>45741.45555555556</v>
+      </c>
+      <c r="D171" t="s">
+        <v>126</v>
+      </c>
+      <c r="E171" t="s">
+        <v>129</v>
+      </c>
+      <c r="F171" t="s">
+        <v>132</v>
+      </c>
+      <c r="G171" t="s">
+        <v>133</v>
+      </c>
+      <c r="H171">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" t="s">
+        <v>9</v>
+      </c>
+      <c r="B172" t="s">
+        <v>10</v>
+      </c>
+      <c r="C172" s="2">
+        <v>45747.47569444445</v>
+      </c>
+      <c r="D172" t="s">
+        <v>14</v>
+      </c>
+      <c r="E172" t="s">
+        <v>129</v>
+      </c>
+      <c r="F172" t="s">
+        <v>132</v>
+      </c>
+      <c r="G172" t="s">
+        <v>133</v>
+      </c>
+      <c r="H172">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" t="s">
+        <v>9</v>
+      </c>
+      <c r="B173" t="s">
+        <v>10</v>
+      </c>
+      <c r="C173" s="2">
+        <v>45754.50486111111</v>
+      </c>
+      <c r="D173" t="s">
+        <v>100</v>
+      </c>
+      <c r="E173" t="s">
+        <v>129</v>
+      </c>
+      <c r="F173" t="s">
+        <v>132</v>
+      </c>
+      <c r="G173" t="s">
+        <v>133</v>
+      </c>
+      <c r="H173">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" t="s">
+        <v>9</v>
+      </c>
+      <c r="B174" t="s">
+        <v>10</v>
+      </c>
+      <c r="C174" s="2">
+        <v>45769.49583333333</v>
+      </c>
+      <c r="D174" t="s">
+        <v>127</v>
+      </c>
+      <c r="E174" t="s">
+        <v>129</v>
+      </c>
+      <c r="F174" t="s">
+        <v>132</v>
+      </c>
+      <c r="G174" t="s">
+        <v>133</v>
+      </c>
+      <c r="H174">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" t="s">
+        <v>9</v>
+      </c>
+      <c r="B175" t="s">
+        <v>10</v>
+      </c>
+      <c r="C175" s="2">
+        <v>45775.50972222222</v>
+      </c>
+      <c r="D175" t="s">
+        <v>128</v>
+      </c>
+      <c r="E175" t="s">
+        <v>129</v>
+      </c>
+      <c r="F175" t="s">
+        <v>132</v>
+      </c>
+      <c r="G175" t="s">
+        <v>133</v>
+      </c>
+      <c r="H175">
         <v>600</v>
       </c>
     </row>
